--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_7_1.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_7_1.xlsx
@@ -478,94 +478,94 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_1</t>
+          <t>model_7_1_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4362301041694921</v>
+        <v>0.1758715878431283</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7472013193015981</v>
+        <v>0.2165196650392641</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2573012275476028</v>
+        <v>-2.594715022818576</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1743721290135136</v>
+        <v>-0.09679580481713934</v>
       </c>
       <c r="F2" t="n">
-        <v>0.623927116394043</v>
+        <v>0.9120672941207886</v>
       </c>
       <c r="G2" t="n">
-        <v>1.649823904037476</v>
+        <v>1.123998284339905</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8797787427902222</v>
+        <v>0.7450722455978394</v>
       </c>
       <c r="I2" t="n">
-        <v>1.287449836730957</v>
+        <v>0.945681631565094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_2</t>
+          <t>model_7_1_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5744928848267147</v>
+        <v>0.2476815344206118</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6368754169855948</v>
+        <v>0.1163988428477337</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03030689551039989</v>
+        <v>-3.459487575920075</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03767585140732521</v>
+        <v>-0.2828150818619202</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4709109961986542</v>
+        <v>0.8325948715209961</v>
       </c>
       <c r="G3" t="n">
-        <v>1.545646905899048</v>
+        <v>1.26763391494751</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6785290241241455</v>
+        <v>0.9243125915527344</v>
       </c>
       <c r="I3" t="n">
-        <v>1.137591481208801</v>
+        <v>1.106071591377258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_4</t>
+          <t>model_7_1_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5899638219191757</v>
+        <v>0.2994798195068017</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6304876486943127</v>
+        <v>0.1622551767936917</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06948587547582608</v>
+        <v>-2.600093777275944</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02299494763805221</v>
+        <v>-0.145201434254318</v>
       </c>
       <c r="F4" t="n">
-        <v>0.453789234161377</v>
+        <v>0.7752693891525269</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539615154266357</v>
+        <v>1.201847434043884</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6511141061782837</v>
+        <v>0.7461870908737183</v>
       </c>
       <c r="I4" t="n">
-        <v>1.12149715423584</v>
+        <v>0.9874181151390076</v>
       </c>
     </row>
     <row r="5">
@@ -575,90 +575,90 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5901551739432284</v>
+        <v>0.3084822613418926</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6095833641136779</v>
+        <v>0.1962681791300993</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07227094677987289</v>
+        <v>-3.105354642684081</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01262607057637455</v>
+        <v>-0.1723990891733698</v>
       </c>
       <c r="F5" t="n">
-        <v>0.45357745885849</v>
+        <v>0.7653063535690308</v>
       </c>
       <c r="G5" t="n">
-        <v>1.519876003265381</v>
+        <v>1.153051614761353</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6491652727127075</v>
+        <v>0.8509118556976318</v>
       </c>
       <c r="I5" t="n">
-        <v>1.110129594802856</v>
+        <v>1.010868549346924</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_5</t>
+          <t>model_7_1_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6059824144747064</v>
+        <v>0.3196790766247024</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.6067453796821756</v>
+        <v>0.2339345811183091</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1069237473037555</v>
+        <v>-3.574437695792332</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0009232828250100855</v>
+        <v>-0.1922818181893866</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4360613822937012</v>
+        <v>0.7529147863388062</v>
       </c>
       <c r="G6" t="n">
-        <v>1.517196178436279</v>
+        <v>1.099014401435852</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6249174475669861</v>
+        <v>0.9481382369995117</v>
       </c>
       <c r="I6" t="n">
-        <v>1.097300171852112</v>
+        <v>1.028011798858643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_0</t>
+          <t>model_7_1_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6130423752659202</v>
+        <v>0.5517609040528361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2092750148426852</v>
+        <v>0.4374461518999192</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3373554038145083</v>
+        <v>-2.181865917092365</v>
       </c>
       <c r="E7" t="n">
-        <v>0.440394649504628</v>
+        <v>0.1445147251889901</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4282480776309967</v>
+        <v>0.4960685670375824</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7466552257537842</v>
+        <v>0.8070523142814636</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4636761844158173</v>
+        <v>0.6595014929771423</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6134885549545288</v>
+        <v>0.7376183271408081</v>
       </c>
     </row>
     <row r="8">
@@ -668,28 +668,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6356142117936976</v>
+        <v>0.699451206184793</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5749415330970384</v>
+        <v>0.666415645528635</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1917086153962826</v>
+        <v>-1.874724129541447</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03904548190208823</v>
+        <v>0.3809558300358545</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4032677114009857</v>
+        <v>0.3326189517974854</v>
       </c>
       <c r="G8" t="n">
-        <v>1.487164735794067</v>
+        <v>0.4785675406455994</v>
       </c>
       <c r="H8" t="n">
-        <v>0.565590500831604</v>
+        <v>0.5958405733108521</v>
       </c>
       <c r="I8" t="n">
-        <v>1.0534827709198</v>
+        <v>0.5337535738945007</v>
       </c>
     </row>
     <row r="9">
@@ -699,90 +699,90 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6411019677868313</v>
+        <v>0.7202407469124898</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5676793403051204</v>
+        <v>0.6837177400934029</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2063055931938564</v>
+        <v>-1.465726588896493</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04674148077834561</v>
+        <v>0.4424642220398964</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3971943855285645</v>
+        <v>0.309611052274704</v>
       </c>
       <c r="G9" t="n">
-        <v>1.480307340621948</v>
+        <v>0.4537455141544342</v>
       </c>
       <c r="H9" t="n">
-        <v>0.555376410484314</v>
+        <v>0.5110681056976318</v>
       </c>
       <c r="I9" t="n">
-        <v>1.045045733451843</v>
+        <v>0.4807197451591492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_8</t>
+          <t>model_7_1_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6549294944007261</v>
+        <v>0.7233798777770134</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5526334061829297</v>
+        <v>0.6783971650634322</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2452357286632151</v>
+        <v>-1.652391395273584</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06529575022028744</v>
+        <v>0.4166569037917317</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3818913996219635</v>
+        <v>0.3061369359493256</v>
       </c>
       <c r="G10" t="n">
-        <v>1.466100096702576</v>
+        <v>0.4613785743713379</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5281356573104858</v>
+        <v>0.5497579574584961</v>
       </c>
       <c r="I10" t="n">
-        <v>1.024704933166504</v>
+        <v>0.5029712915420532</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_9</t>
+          <t>model_7_1_8</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6586521969268309</v>
+        <v>0.7283382578375334</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5507005598208732</v>
+        <v>0.6894314283802769</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2569663406622695</v>
+        <v>-1.420979368097305</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06970031016673051</v>
+        <v>0.4525589037214911</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3777714371681213</v>
+        <v>0.300649493932724</v>
       </c>
       <c r="G11" t="n">
-        <v>1.464274764060974</v>
+        <v>0.4455485939979553</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5199272632598877</v>
+        <v>0.5017934441566467</v>
       </c>
       <c r="I11" t="n">
-        <v>1.01987624168396</v>
+        <v>0.4720158874988556</v>
       </c>
     </row>
     <row r="12">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6614674749707665</v>
+        <v>0.7412982294612298</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5552734168395814</v>
+        <v>0.6874241898322258</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2689556571928283</v>
+        <v>-1.526178561057334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07121645645320407</v>
+        <v>0.4388899010280761</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3746557235717773</v>
+        <v>0.2863066494464874</v>
       </c>
       <c r="G12" t="n">
-        <v>1.468592762947083</v>
+        <v>0.448428213596344</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5115379691123962</v>
+        <v>0.5235980153083801</v>
       </c>
       <c r="I12" t="n">
-        <v>1.018214106559753</v>
+        <v>0.4838015735149384</v>
       </c>
     </row>
     <row r="13">
@@ -823,28 +823,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6650407879222981</v>
+        <v>0.7490160177648111</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5546088735065846</v>
+        <v>0.690416243979882</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2810524405037922</v>
+        <v>-1.44670795015799</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07515289601589548</v>
+        <v>0.4505123795373531</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3707011342048645</v>
+        <v>0.277765303850174</v>
       </c>
       <c r="G13" t="n">
-        <v>1.467965483665466</v>
+        <v>0.4441357553005219</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5030733942985535</v>
+        <v>0.5071262121200562</v>
       </c>
       <c r="I13" t="n">
-        <v>1.013898730278015</v>
+        <v>0.4737803936004639</v>
       </c>
     </row>
     <row r="14">
@@ -854,28 +854,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6682802157373615</v>
+        <v>0.7558286995599944</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5543395868805907</v>
+        <v>0.6909260225215247</v>
       </c>
       <c r="D14" t="n">
-        <v>0.292320063804533</v>
+        <v>-1.370876859501327</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07866030707116489</v>
+        <v>0.4595436448186199</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3671160340309143</v>
+        <v>0.2702256739139557</v>
       </c>
       <c r="G14" t="n">
-        <v>1.467711091041565</v>
+        <v>0.443404346704483</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4951890408992767</v>
+        <v>0.4914087653160095</v>
       </c>
       <c r="I14" t="n">
-        <v>1.010053515434265</v>
+        <v>0.4659934341907501</v>
       </c>
     </row>
     <row r="15">
@@ -885,28 +885,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6709137669419009</v>
+        <v>0.7600408125903589</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5572720799958391</v>
+        <v>0.6909714015954092</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3027199533790467</v>
+        <v>-1.381159726057862</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08044673609774056</v>
+        <v>0.458416805738438</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3642015159130096</v>
+        <v>0.2655641138553619</v>
       </c>
       <c r="G15" t="n">
-        <v>1.47048008441925</v>
+        <v>0.4433393180370331</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4879118502140045</v>
+        <v>0.4935401082038879</v>
       </c>
       <c r="I15" t="n">
-        <v>1.008095145225525</v>
+        <v>0.4669650197029114</v>
       </c>
     </row>
     <row r="16">
@@ -916,28 +916,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6734394245170836</v>
+        <v>0.7642816107488581</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5606286435694821</v>
+        <v>0.6908593613426857</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3131650848151797</v>
+        <v>-1.391423024256448</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08205373528267956</v>
+        <v>0.4571563145747096</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3614063262939453</v>
+        <v>0.2608707845211029</v>
       </c>
       <c r="G16" t="n">
-        <v>1.473649621009827</v>
+        <v>0.4435000419616699</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4806030094623566</v>
+        <v>0.4956673681735992</v>
       </c>
       <c r="I16" t="n">
-        <v>1.006333351135254</v>
+        <v>0.4680518507957458</v>
       </c>
     </row>
     <row r="17">
@@ -947,28 +947,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6761570147469476</v>
+        <v>0.7684399363964868</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5622846881994492</v>
+        <v>0.6896039299916821</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3232750028433129</v>
+        <v>-1.38121254152776</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08433492542475141</v>
+        <v>0.4572057184080579</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3583987355232239</v>
+        <v>0.2562687695026398</v>
       </c>
       <c r="G17" t="n">
-        <v>1.475213408470154</v>
+        <v>0.4453011155128479</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4735287427902222</v>
+        <v>0.4935510456562042</v>
       </c>
       <c r="I17" t="n">
-        <v>1.003832578659058</v>
+        <v>0.4680092334747314</v>
       </c>
     </row>
     <row r="18">
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6774349212885263</v>
+        <v>0.7722367770099429</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.5721192223784122</v>
+        <v>0.6881817621065127</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3319470677190701</v>
+        <v>-1.378049442278153</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08245543012495726</v>
+        <v>0.4563127488399654</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3569844663143158</v>
+        <v>0.2520667910575867</v>
       </c>
       <c r="G18" t="n">
-        <v>1.48449969291687</v>
+        <v>0.4473413825035095</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4674606025218964</v>
+        <v>0.4928954243659973</v>
       </c>
       <c r="I18" t="n">
-        <v>1.005892992019653</v>
+        <v>0.4687792062759399</v>
       </c>
     </row>
     <row r="19">
@@ -1009,28 +1009,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6795310999137525</v>
+        <v>0.774730422510727</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.576104825405964</v>
+        <v>0.6877957477703214</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3410653119058545</v>
+        <v>-1.425406646738312</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08337681756959503</v>
+        <v>0.4506135310620867</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3546646237373352</v>
+        <v>0.2493070214986801</v>
       </c>
       <c r="G19" t="n">
-        <v>1.488263249397278</v>
+        <v>0.4478951990604401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4610802531242371</v>
+        <v>0.5027111172676086</v>
       </c>
       <c r="I19" t="n">
-        <v>1.00488293170929</v>
+        <v>0.4736931622028351</v>
       </c>
     </row>
     <row r="20">
@@ -1040,214 +1040,214 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6808634166296104</v>
+        <v>0.7781328911552264</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5841893770054722</v>
+        <v>0.6831967981947833</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3486653226614251</v>
+        <v>-1.423943180695787</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08197295319139952</v>
+        <v>0.4467310151097583</v>
       </c>
       <c r="F20" t="n">
-        <v>0.353190153837204</v>
+        <v>0.2455415278673172</v>
       </c>
       <c r="G20" t="n">
-        <v>1.495897173881531</v>
+        <v>0.4544928967952728</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4557622373104095</v>
+        <v>0.5024077892303467</v>
       </c>
       <c r="I20" t="n">
-        <v>1.00642192363739</v>
+        <v>0.4770407378673553</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_19</t>
+          <t>model_7_1_24</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6819247242600182</v>
+        <v>0.7882515426542933</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5940101136179714</v>
+        <v>0.6587002796008148</v>
       </c>
       <c r="D21" t="n">
-        <v>0.356726316036868</v>
+        <v>-2.165987982074765</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07991590738074505</v>
+        <v>0.3412077838699829</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3520155847072601</v>
+        <v>0.2343431562185287</v>
       </c>
       <c r="G21" t="n">
-        <v>1.505170702934265</v>
+        <v>0.4896361529827118</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4501216411590576</v>
+        <v>0.6562104821205139</v>
       </c>
       <c r="I21" t="n">
-        <v>1.008677005767822</v>
+        <v>0.5680251717567444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_20</t>
+          <t>model_7_1_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6826246770937903</v>
+        <v>0.7888522598718374</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6051928597591796</v>
+        <v>0.6527966613350394</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3634825727361135</v>
+        <v>-1.825157191147835</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07684604762668668</v>
+        <v>0.3745646571549697</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3512409627437592</v>
+        <v>0.233678326010704</v>
       </c>
       <c r="G22" t="n">
-        <v>1.515730142593384</v>
+        <v>0.4981056451797485</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4453940391540527</v>
+        <v>0.5855668783187866</v>
       </c>
       <c r="I22" t="n">
-        <v>1.01204240322113</v>
+        <v>0.5392642021179199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_21</t>
+          <t>model_7_1_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6833482946322722</v>
+        <v>0.7891045914586325</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.6158771870034891</v>
+        <v>0.6576895427300058</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3702938162548033</v>
+        <v>-1.94530636732738</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07401972007379642</v>
+        <v>0.3652840927267299</v>
       </c>
       <c r="F23" t="n">
-        <v>0.350440114736557</v>
+        <v>0.2333990484476089</v>
       </c>
       <c r="G23" t="n">
-        <v>1.525818943977356</v>
+        <v>0.4910861551761627</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4406279921531677</v>
+        <v>0.6104701161384583</v>
       </c>
       <c r="I23" t="n">
-        <v>1.015141010284424</v>
+        <v>0.5472661256790161</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_22</t>
+          <t>model_7_1_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6838675258268261</v>
+        <v>0.7892802020620986</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.6267763281901046</v>
+        <v>0.6579264712615286</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3763331889408066</v>
+        <v>-2.043191474977315</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07086381592706992</v>
+        <v>0.3544198338952598</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3498654961585999</v>
+        <v>0.2332047075033188</v>
       </c>
       <c r="G24" t="n">
-        <v>1.536110639572144</v>
+        <v>0.4907462894916534</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4364020228385925</v>
+        <v>0.6307585835456848</v>
       </c>
       <c r="I24" t="n">
-        <v>1.018600821495056</v>
+        <v>0.5566335320472717</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_23</t>
+          <t>model_7_1_20</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6844595857025966</v>
+        <v>0.7894266102101462</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.6367947891551857</v>
+        <v>0.6536621707324612</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3821115345700039</v>
+        <v>-1.703826178998256</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06803117188723096</v>
+        <v>0.3890513552449202</v>
       </c>
       <c r="F25" t="n">
-        <v>0.349210262298584</v>
+        <v>0.2330427020788193</v>
       </c>
       <c r="G25" t="n">
-        <v>1.545570850372314</v>
+        <v>0.4968639612197876</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4323587417602539</v>
+        <v>0.5604187250137329</v>
       </c>
       <c r="I25" t="n">
-        <v>1.021706223487854</v>
+        <v>0.5267734527587891</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_1_24</t>
+          <t>model_7_1_19</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6846503993369732</v>
+        <v>0.7900246628342548</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6492399245190879</v>
+        <v>0.6502201847162494</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3879005986940993</v>
+        <v>-1.555407595326259</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06409488638972949</v>
+        <v>0.4028095126525227</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3489990830421448</v>
+        <v>0.2323808372020721</v>
       </c>
       <c r="G26" t="n">
-        <v>1.557322382926941</v>
+        <v>0.5018019080162048</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4283078908920288</v>
+        <v>0.5296562314033508</v>
       </c>
       <c r="I26" t="n">
-        <v>1.026021361351013</v>
+        <v>0.514910876750946</v>
       </c>
     </row>
   </sheetData>
